--- a/example_output.xlsx
+++ b/example_output.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kconnolly101\PycharmProjects\soccerway-scraper\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>Week</t>
   </si>
@@ -185,18 +190,6 @@
   </si>
   <si>
     <t>A Shots OFF</t>
-  </si>
-  <si>
-    <t>H Pens</t>
-  </si>
-  <si>
-    <t>A Pens</t>
-  </si>
-  <si>
-    <t>H Pen Mins</t>
-  </si>
-  <si>
-    <t>A Pen Mins</t>
   </si>
   <si>
     <t>27 January 2019</t>
@@ -232,106 +225,106 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="9" tint="0.3999755851924192"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFC00000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.7999816888943144"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,7 +342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.3499862666707358"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,25 +354,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1499984740745262"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.7999816888943144"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.7999816888943144"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,122 +439,128 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+  <cellXfs count="35">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="6" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="6" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="6" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="7" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="7" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="7" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="8" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="10" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="10" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="5" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="5" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="12" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="9" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="12" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="9" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="2" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
     <cellStyle name="Normal 3 3" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -827,32 +826,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:BI4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BG11" sqref="BG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="14.140625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="13.42578125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="13.28515625"/>
-    <col bestFit="1" customWidth="1" max="47" min="47" width="12.140625"/>
-    <col bestFit="1" customWidth="1" max="54" min="54" width="10.85546875"/>
-    <col bestFit="1" customWidth="1" max="55" min="55" width="11.42578125"/>
-    <col bestFit="1" customWidth="1" max="56" min="56" width="10.85546875"/>
-    <col bestFit="1" customWidth="1" max="57" min="57" width="11.42578125"/>
-    <col bestFit="1" customWidth="1" max="61" min="60" width="11"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="15.75" r="1" s="20" spans="1:61" thickBot="1">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:57" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -861,10 +855,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -999,10 +993,10 @@
       <c r="AW1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="31" t="s">
+      <c r="AX1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="33" t="s">
+      <c r="AY1" s="32" t="s">
         <v>50</v>
       </c>
       <c r="AZ1" s="16" t="s">
@@ -1023,300 +1017,252 @@
       <c r="BE1" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="30" t="s">
+    </row>
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="30" t="s">
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="23" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>35</v>
+      </c>
+      <c r="W2">
+        <v>39</v>
+      </c>
+      <c r="X2">
+        <v>76</v>
+      </c>
+      <c r="Y2">
+        <v>84</v>
+      </c>
+      <c r="AF2">
+        <v>31</v>
+      </c>
+      <c r="AG2">
+        <v>45</v>
+      </c>
+      <c r="AH2">
+        <v>55</v>
+      </c>
+      <c r="AR2">
+        <v>86</v>
+      </c>
+      <c r="AU2" t="s">
         <v>60</v>
       </c>
+      <c r="AV2">
+        <v>6</v>
+      </c>
+      <c r="AW2">
+        <v>7</v>
+      </c>
+      <c r="AX2">
+        <v>3</v>
+      </c>
+      <c r="AY2">
+        <v>2</v>
+      </c>
+      <c r="AZ2">
+        <v>17</v>
+      </c>
+      <c r="BA2">
+        <v>12</v>
+      </c>
+      <c r="BB2">
+        <v>2</v>
+      </c>
+      <c r="BC2">
+        <v>6</v>
+      </c>
+      <c r="BD2">
+        <v>2</v>
+      </c>
+      <c r="BE2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:61">
-      <c r="A2" t="n">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
         <v>61</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>62</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>53</v>
+      </c>
+      <c r="O3">
+        <v>70</v>
+      </c>
+      <c r="P3">
+        <v>75</v>
+      </c>
+      <c r="Q3">
+        <v>87</v>
+      </c>
+      <c r="W3">
+        <v>7</v>
+      </c>
+      <c r="X3">
+        <v>36</v>
+      </c>
+      <c r="AF3">
+        <v>34</v>
+      </c>
+      <c r="AG3">
+        <v>57</v>
+      </c>
+      <c r="AH3">
+        <v>76</v>
+      </c>
+      <c r="AI3">
+        <v>90</v>
+      </c>
+      <c r="AU3" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="n">
+      <c r="AV3">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="AW3">
+        <v>10</v>
+      </c>
+      <c r="AX3">
+        <v>7</v>
+      </c>
+      <c r="AY3">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="AZ3">
+        <v>11</v>
+      </c>
+      <c r="BA3">
+        <v>12</v>
+      </c>
+      <c r="BB3">
+        <v>2</v>
+      </c>
+      <c r="BC3">
+        <v>4</v>
+      </c>
+      <c r="BD3">
+        <v>5</v>
+      </c>
+      <c r="BE3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>44</v>
+      </c>
+      <c r="H4">
+        <v>59</v>
+      </c>
+      <c r="I4">
+        <v>71</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>33</v>
+      </c>
+      <c r="Q4">
+        <v>40</v>
+      </c>
+      <c r="AF4">
+        <v>23</v>
+      </c>
+      <c r="AG4">
         <v>35</v>
       </c>
-      <c r="W2" t="n">
-        <v>39</v>
-      </c>
-      <c r="X2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>84</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>31</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>45</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>86</v>
-      </c>
-      <c r="AU2" t="s">
+      <c r="AH4">
         <v>64</v>
       </c>
-      <c r="AV2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW2" t="n">
+      <c r="AU4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV4">
+        <v>9</v>
+      </c>
+      <c r="AW4">
+        <v>2</v>
+      </c>
+      <c r="AX4">
+        <v>4</v>
+      </c>
+      <c r="AY4">
+        <v>2</v>
+      </c>
+      <c r="AZ4">
         <v>7</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="BA4">
+        <v>14</v>
+      </c>
+      <c r="BB4">
         <v>3</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="BC4">
+        <v>7</v>
+      </c>
+      <c r="BD4">
         <v>2</v>
       </c>
-      <c r="AZ2" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB2" t="n">
+      <c r="BE4">
         <v>2</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>2</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:61">
-      <c r="A3" t="n">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H3" t="n">
-        <v>53</v>
-      </c>
-      <c r="O3" t="n">
-        <v>70</v>
-      </c>
-      <c r="P3" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>87</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7</v>
-      </c>
-      <c r="X3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>57</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>76</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>5</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:61">
-      <c r="A4" t="n">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" t="n">
-        <v>44</v>
-      </c>
-      <c r="H4" t="n">
-        <v>59</v>
-      </c>
-      <c r="I4" t="n">
-        <v>71</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>35</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>64</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>14</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>2</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>